--- a/biology/Botanique/Jardin_des_plantes_de_Rouen/Jardin_des_plantes_de_Rouen.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_de_Rouen/Jardin_des_plantes_de_Rouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des plantes de Rouen est un jardin botanique ouvert au public, situé sur la rive gauche de la Seine à Rouen, accessible depuis la place et l'avenue des Martyrs-de-la-Résistance, la rue Dufay et la rue de Trianon.
-Le jardin compte 5 600 espèces de végétaux et s'étend sur huit hectares et demi dont huit ouverts au public. Sa collection de fuchsias compte 991 espèces et variétés ; elle a obtenu le label « Collection nationale » du Conservatoire des collections végétales spécialisées[1].
+Le jardin compte 5 600 espèces de végétaux et s'étend sur huit hectares et demi dont huit ouverts au public. Sa collection de fuchsias compte 991 espèces et variétés ; elle a obtenu le label « Collection nationale » du Conservatoire des collections végétales spécialisées.
 </t>
         </is>
       </c>
@@ -515,90 +527,411 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La perspective
-Une grande perspective s'étend de la Grande Serre à la place des Martyrs-de-la-Résistance.
+          <t>La perspective</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande perspective s'étend de la Grande Serre à la place des Martyrs-de-la-Résistance.
 Sur l'un des côtés, on peut y voir une mosaïculture représentant un papillon.
-Le pavillon
-Le pavillon est un bâtiment de la fin du XVIIe siècle édifié par Louis de Carel. Il est utilisé aujourd'hui pour des expositions temporaires.
-L'orangerie
-L'orangerie est un bâtiment construit en 1895-1896. Elle est utilisée pour des expositions temporaires.
-La roseraie
-D'une superficie de 670 m2, la roseraie a pour but d'étudier et de présenter au public les différentes sous-espèces de roses. On y trouve notamment des roses créées par des rosiéristes normands.
-Les serres
-La serre centrale (1839-1842) au bout de la perspective fait l’objet d’une inscription au titre des monuments historiques depuis le 15 janvier 1975[2]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le pavillon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pavillon est un bâtiment de la fin du XVIIe siècle édifié par Louis de Carel. Il est utilisé aujourd'hui pour des expositions temporaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'orangerie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orangerie est un bâtiment construit en 1895-1896. Elle est utilisée pour des expositions temporaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La roseraie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 670 m2, la roseraie a pour but d'étudier et de présenter au public les différentes sous-espèces de roses. On y trouve notamment des roses créées par des rosiéristes normands.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les serres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La serre centrale (1839-1842) au bout de la perspective fait l’objet d’une inscription au titre des monuments historiques depuis le 15 janvier 1975. 
 Elle a été restaurée en 1999.
 On trouve dans la partie ouest les serres tropicales (1936-1938), et les sept serres (1883-1884) dont la serre palmarium.
 Les serres tropicales et les sept serres ont été entièrement reconstruites en 2020. L'une d'entre elles propose même des ateliers pour les enfants.
-Le pressoir
-Un pressoir du XVIIIe siècle provenant de Tourville-sur-Pont-Audemer y a été reconstruit en 1996. Il est dédié au rouennais Charles-Victor Langlois (1863-1929), directeur des Archives de France.
-Les collections
-roses, dahlias, fuchsias (plus de 1000 taxons), rhododendrons, iris et hémérocalles, plantes médicinales, plantes aromatiques…
-Les volières
-Il est possible d'y observer perruches, perroquets, cailles de Chine, faisans dorés…
-Statuaire
-Buste en pierre d'Eugène Noël réalisé par Alphonse Guilloux (1905)[3]
-Pierre runique décorée d'une composition due à Gerhard Munthe offerte par la Norvège lors des fêtes du millénaire normand en juin 1911[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le pressoir</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pressoir du XVIIIe siècle provenant de Tourville-sur-Pont-Audemer y a été reconstruit en 1996. Il est dédié au rouennais Charles-Victor Langlois (1863-1929), directeur des Archives de France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">roses, dahlias, fuchsias (plus de 1000 taxons), rhododendrons, iris et hémérocalles, plantes médicinales, plantes aromatiques…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les volières</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible d'y observer perruches, perroquets, cailles de Chine, faisans dorés…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Statuaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Buste en pierre d'Eugène Noël réalisé par Alphonse Guilloux (1905)
+Pierre runique décorée d'une composition due à Gerhard Munthe offerte par la Norvège lors des fêtes du millénaire normand en juin 1911
 Statue en bronze Migrations de Georges Schneider (1970)
 Stèle funéraire provenant de l'ancien cimetière qui se trouvait rue de Trianon
 Vase en fonte de la fonderie Calla
-Vase de Sèvres
-Jeux et restauration
-Manège et aires de jeux pour les enfants. Kiosque à musique de style Art déco.
+Vase de Sèvres</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Attractions du jardin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jeux et restauration</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manège et aires de jeux pour les enfants. Kiosque à musique de style Art déco.
 Un bassin où le modélisme naval y trouve une surface de test et de plaisir.
 En haute saison, il est possible de s'y restaurer. Une « cabane » se trouvant à proximité des jeux pour enfants et du grand kiosque propose une multitude de snacks : paninis, frites, hamburgers ; des bonbons et des glaces peuvent y être également achetés.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jardin_des_plantes_de_Rouen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_de_Rouen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1691 : Louis de Carel (1657-1717), président de la Cour des aides, acquiert un terrain de la forêt du Rouvray. Il le fait entourer de murs, dessine un jardin et y fait construire le pavillon double actuel.
 1719 : Le banquier écossais John Law le rachète.
-1741 : Après avoir appartenu à divers membres de la bourgeoisie locale, madame Marie Planterose en devient propriétaire, d'où l'appellation « Jardin de Madame Planterose », jusqu'à la Révolution[5]. Le jardin est ouvert au public. Aujourd'hui, seul le monogramme « P.M. », qui orne la grille principale du jardin des plantes, rappelle le nom de l'ancienne propriétaire[5].
-1801 : Le jardin est racheté par le limonadier François Thillard, qui organise de splendides fêtes publiques[5],[6], et devient le jardin du Trianon, dont le souvenir se perpétue avec la rue de Trianon.
+1741 : Après avoir appartenu à divers membres de la bourgeoisie locale, madame Marie Planterose en devient propriétaire, d'où l'appellation « Jardin de Madame Planterose », jusqu'à la Révolution. Le jardin est ouvert au public. Aujourd'hui, seul le monogramme « P.M. », qui orne la grille principale du jardin des plantes, rappelle le nom de l'ancienne propriétaire.
+1801 : Le jardin est racheté par le limonadier François Thillard, qui organise de splendides fêtes publiques et devient le jardin du Trianon, dont le souvenir se perpétue avec la rue de Trianon.
 1803 : Jean-Pierre Blanchard y fait sa 54e ascension en ballon (la 4e qu'il fit à Rouen).
-1806 : Sophie Blanchard y fait une ascension seule en montgolfière. Une plaque commémorative sur l'orangerie lui rend hommage[7].
-1811 : La danseuse de corde Madame Saqui vient y présenter son spectacle sous un feu d'artifice tiré par Ruggieri[8]. Napoléon fait acheter le domaine pour le général Rampon[5] et y établir la Sénatorerie de la Seine-Inférieure[9].
+1806 : Sophie Blanchard y fait une ascension seule en montgolfière. Une plaque commémorative sur l'orangerie lui rend hommage.
+1811 : La danseuse de corde Madame Saqui vient y présenter son spectacle sous un feu d'artifice tiré par Ruggieri. Napoléon fait acheter le domaine pour le général Rampon et y établir la Sénatorerie de la Seine-Inférieure.
 1814 : Il est racheté par la Chambre des pairs pour être affecté à des fêtes publiques.
-1817 : Élisa Garnerin se livre à partir d'un ballon à une descente en parachute sur le jardin des plantes. Une plaque commémorative lui rend hommage[7].
-1820 : L'horticulteur anglais Alfred Crace Calvert[Note 1], locataire du domaine, y établit des serres et y cultive des dahlias et des geraniums[10].
-1832 (le 13 décembre[5]) : La ville de Rouen achète le domaine de Trianon pour y transférer son jardin botanique.
-1835 : Alfred Crace Calvert quitte les lieux[11]. Les plans du jardin dessinés par Désiré Lejeune sont approuvés.
-1838 : Transfert des plantes du cours Dauphin au domaine de Trianon[12].
+1817 : Élisa Garnerin se livre à partir d'un ballon à une descente en parachute sur le jardin des plantes. Une plaque commémorative lui rend hommage.
+1820 : L'horticulteur anglais Alfred Crace Calvert[Note 1], locataire du domaine, y établit des serres et y cultive des dahlias et des geraniums.
+1832 (le 13 décembre) : La ville de Rouen achète le domaine de Trianon pour y transférer son jardin botanique.
+1835 : Alfred Crace Calvert quitte les lieux. Les plans du jardin dessinés par Désiré Lejeune sont approuvés.
+1838 : Transfert des plantes du cours Dauphin au domaine de Trianon.
 1839-1842 : Construction de la serre centrale.
-1840 : L'ancien jardin du domaine de Trianon a été entièrement redessiné[5], le parc est ouvert au public et prend le nom de Jardin des Plantes. Le jardin se fait aussi appeler Jardin de la Mare du Parc[5],[13],[Note 2]. Initialement, le Jardin des Plantes était un jardin botanique dans lequel se réunissaient à partir de 1735 les premiers membres de l'Académie des sciences, belles-lettres et arts de Rouen. Il fut situé d'abord faubourg Bouvreuil puis, en 1756, à l'entrée du cours Dauphin avant d'être transféré à l'emplacement actuel[14].
-1867 : Emmanuel Blanche (1824-1908), médecin des hôpitaux de Rouen, est nommé directeur du jardin des plantes [15],[16].
+1840 : L'ancien jardin du domaine de Trianon a été entièrement redessiné, le parc est ouvert au public et prend le nom de Jardin des Plantes. Le jardin se fait aussi appeler Jardin de la Mare du Parc[Note 2]. Initialement, le Jardin des Plantes était un jardin botanique dans lequel se réunissaient à partir de 1735 les premiers membres de l'Académie des sciences, belles-lettres et arts de Rouen. Il fut situé d'abord faubourg Bouvreuil puis, en 1756, à l'entrée du cours Dauphin avant d'être transféré à l'emplacement actuel.
+1867 : Emmanuel Blanche (1824-1908), médecin des hôpitaux de Rouen, est nommé directeur du jardin des plantes ,.
 1883-1884 : Construction des sept serres dont la serre palmarium, inaugurées en 1885.
 1891-1894 : Agrandissement du jardin.
 1895-1896 : Construction de l'orangerie.
 1931 : Création de l'école municipale d'horticulture.
-1936 : Madame Le Prévost de la Moissonnière offre les trois nouvelles serres tropicales[17].
-1940 : Le 9 juin, le maire Georges Métayer occupe l'orangerie[18].
-1970 : L'école municipale d'horticulture est fermée à la suite des modifications du programme du brevet d'apprentissage et du brevet professionnel horticole[19].
+1936 : Madame Le Prévost de la Moissonnière offre les trois nouvelles serres tropicales.
+1940 : Le 9 juin, le maire Georges Métayer occupe l'orangerie.
+1970 : L'école municipale d'horticulture est fermée à la suite des modifications du programme du brevet d'apprentissage et du brevet professionnel horticole.
 2004 : Le jardin est agréé par l'association des Jardins botaniques de France et des pays francophones.</t>
         </is>
       </c>
